--- a/data/samples_paper.xlsx
+++ b/data/samples_paper.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\romai\Documents\PathologyPaper\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97DDC51F-F7C5-4D1E-AB93-CB6FDC7BC726}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53D3E3B9-6D15-4BC8-A0BA-3476D472021D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="384" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28800" yWindow="2325" windowWidth="29010" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="19">
   <si>
     <t>Sample Nr</t>
   </si>
@@ -452,18 +452,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G30"/>
+  <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="H31" sqref="H31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="63.44140625" customWidth="1"/>
+    <col min="4" max="4" width="81.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -483,7 +483,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -503,7 +503,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <f>A2+1</f>
         <v>1</v>
@@ -518,13 +518,13 @@
         <v>12</v>
       </c>
       <c r="E3" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G3">
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <f t="shared" ref="A4:A15" si="0">A3+1</f>
         <v>2</v>
@@ -545,7 +545,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -566,7 +566,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -587,7 +587,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -608,7 +608,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -629,7 +629,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -650,7 +650,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -671,7 +671,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -692,7 +692,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -713,7 +713,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -734,7 +734,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -755,7 +755,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -776,7 +776,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <f>A15+1</f>
         <v>14</v>
@@ -797,7 +797,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <f t="shared" ref="A17:A27" si="1">A16+1</f>
         <v>15</v>
@@ -818,7 +818,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <f t="shared" si="1"/>
         <v>16</v>
@@ -833,13 +833,13 @@
         <v>14</v>
       </c>
       <c r="E18" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G18">
         <v>57</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <f t="shared" si="1"/>
         <v>17</v>
@@ -860,7 +860,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <f t="shared" si="1"/>
         <v>18</v>
@@ -875,34 +875,34 @@
         <v>14</v>
       </c>
       <c r="E20" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="G20">
         <v>57</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <f t="shared" si="1"/>
         <v>19</v>
       </c>
       <c r="B21">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="C21" t="s">
         <v>9</v>
       </c>
       <c r="D21" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E21" t="s">
         <v>8</v>
       </c>
       <c r="G21">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <f t="shared" si="1"/>
         <v>20</v>
@@ -923,7 +923,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <f t="shared" si="1"/>
         <v>21</v>
@@ -938,19 +938,19 @@
         <v>15</v>
       </c>
       <c r="E23" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="G23">
         <v>48</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
       <c r="B24">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C24" t="s">
         <v>9</v>
@@ -959,40 +959,40 @@
         <v>15</v>
       </c>
       <c r="E24" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="G24">
         <v>48</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <f t="shared" si="1"/>
         <v>23</v>
       </c>
       <c r="B25">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C25" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D25" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E25" t="s">
         <v>8</v>
       </c>
       <c r="G25">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
       <c r="B26">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C26" t="s">
         <v>6</v>
@@ -1001,15 +1001,15 @@
         <v>18</v>
       </c>
       <c r="E26" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="G26">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
-        <f>A26+1</f>
+        <f t="shared" si="1"/>
         <v>25</v>
       </c>
       <c r="B27">
@@ -1025,69 +1025,6 @@
         <v>8</v>
       </c>
       <c r="G27">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28" s="1">
-        <f>A27+1</f>
-        <v>26</v>
-      </c>
-      <c r="B28">
-        <v>67</v>
-      </c>
-      <c r="C28" t="s">
-        <v>6</v>
-      </c>
-      <c r="D28" t="s">
-        <v>18</v>
-      </c>
-      <c r="E28" t="s">
-        <v>8</v>
-      </c>
-      <c r="G28">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A29" s="1">
-        <f>A28+1</f>
-        <v>27</v>
-      </c>
-      <c r="B29">
-        <v>67</v>
-      </c>
-      <c r="C29" t="s">
-        <v>6</v>
-      </c>
-      <c r="D29" t="s">
-        <v>18</v>
-      </c>
-      <c r="E29" t="s">
-        <v>8</v>
-      </c>
-      <c r="G29">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A30" s="1">
-        <f>A29+1</f>
-        <v>28</v>
-      </c>
-      <c r="B30">
-        <v>67</v>
-      </c>
-      <c r="C30" t="s">
-        <v>6</v>
-      </c>
-      <c r="D30" t="s">
-        <v>18</v>
-      </c>
-      <c r="E30" t="s">
-        <v>11</v>
-      </c>
-      <c r="G30">
         <v>34</v>
       </c>
     </row>
